--- a/dummydata.xlsx
+++ b/dummydata.xlsx
@@ -1,243 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbaime/Desktop/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA5047-A7AD-124C-90A1-B6BAF6D8D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="760" windowWidth="15960" windowHeight="17840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10960" yWindow="760" windowWidth="15960" windowHeight="17840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Base Assumptions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Income Statement" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Base Rates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Statement" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" iterate="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
-  <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 4 </t>
-  </si>
-  <si>
-    <t>Year 5</t>
-  </si>
-  <si>
-    <t>P&amp;L Statement</t>
-  </si>
-  <si>
-    <t>Revenue (Yoy.)</t>
-  </si>
-  <si>
-    <t>COGS (increasing marging)</t>
-  </si>
-  <si>
-    <t>SG&amp;A (% of Rev.)</t>
-  </si>
-  <si>
-    <t>D&amp;A (% of Rev.)</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Balance Sheet Statement</t>
-  </si>
-  <si>
-    <t>Inventory Days</t>
-  </si>
-  <si>
-    <t>Debtor Days</t>
-  </si>
-  <si>
-    <t>Creditor Days</t>
-  </si>
-  <si>
-    <t>CapEx (% of Rev.)</t>
-  </si>
-  <si>
-    <t>Financial Assumptions</t>
-  </si>
-  <si>
-    <t>Cash Interest</t>
-  </si>
-  <si>
-    <t>Long-Term Debt Interest</t>
-  </si>
-  <si>
-    <t>Revolver Interest</t>
-  </si>
-  <si>
-    <t>Debt redemption (mandatory)</t>
-  </si>
-  <si>
-    <t>Year 4</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>% margin</t>
-  </si>
-  <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
-    <t>EBIT</t>
-  </si>
-  <si>
-    <t>Interest Income</t>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-  </si>
-  <si>
-    <t>Proft before Taxes</t>
-  </si>
-  <si>
-    <t>Tax Expenses</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
-    <t>USD millions, except per share data</t>
-  </si>
-  <si>
-    <t>Base Year</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Revenues</t>
-  </si>
-  <si>
-    <t>Profit Before Tax</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\);&quot;-&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0%;\(0.0%\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0;\(#,##0.0\);&quot;-&quot;"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0&quot;A&quot;"/>
-    <numFmt numFmtId="170" formatCode="0&quot;E&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0_);\(#,##0\);\-"/>
+    <numFmt numFmtId="169" formatCode="0&quot;E&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\);\-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
+      <name val="Aptos Narrow"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="11"/>
+      <sz val="10"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <i val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <i/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color theme="0"/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -256,24 +128,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF132E57"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1E8496"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED942D"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -345,6 +211,49 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="13"/>
       </left>
@@ -352,8 +261,8 @@
       <top style="thin">
         <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="13"/>
+      <bottom style="hair">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -363,10 +272,10 @@
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -378,10 +287,10 @@
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -389,11 +298,26 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
-      <right style="thin">
-        <color indexed="13"/>
+      <right style="hair">
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -404,12 +328,72 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
-      <right/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,137 +403,6 @@
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom/>
@@ -598,46 +451,76 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,81 +533,6 @@
       </right>
       <top style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -740,276 +548,252 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="84">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1079,14 +863,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2134,403 +1910,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="10.83203125" customWidth="1"/>
+    <col width="10.83203125" customWidth="1" min="1" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15">
+    <row r="1" ht="14" customHeight="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Assumptions</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Year 1</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Year 4 </t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.75" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>P&amp;L Statement</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.75" customHeight="1">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>Revenue (Yoy.)</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H3" s="14" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21">
+    <row r="4" ht="13.75" customHeight="1">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>COGS (increasing marging)</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="17" t="n"/>
+      <c r="D4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="H4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="5" ht="13.75" customHeight="1">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>SG&amp;A (% of Rev.)</t>
+        </is>
+      </c>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H5" s="14" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21">
+    <row r="6" ht="13.75" customHeight="1">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>D&amp;A (% of Rev.)</t>
+        </is>
+      </c>
+      <c r="B6" s="19" t="n"/>
+      <c r="C6" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H6" s="14" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21">
+    <row r="7" ht="13.75" customHeight="1">
+      <c r="A7" s="15" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H7" s="14" t="n">
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28">
+    <row r="8" ht="13.75" customHeight="1">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="21" t="n"/>
+      <c r="D8" s="22" t="n"/>
+      <c r="E8" s="22" t="n"/>
+      <c r="F8" s="22" t="n"/>
+      <c r="G8" s="22" t="n"/>
+      <c r="H8" s="23" t="n"/>
+    </row>
+    <row r="9" ht="13.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Balance Sheet Statement</t>
+        </is>
+      </c>
+      <c r="B9" s="24" t="n"/>
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="13.75" customHeight="1">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>Inventory Days</t>
+        </is>
+      </c>
+      <c r="B10" s="26" t="n"/>
+      <c r="C10" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H10" s="28" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="28">
+    <row r="11" ht="13.75" customHeight="1">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>Debtor Days</t>
+        </is>
+      </c>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="27" t="n">
         <v>55</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H11" s="28" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="28">
+    <row r="12" ht="13.75" customHeight="1">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>Creditor Days</t>
+        </is>
+      </c>
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H12" s="28" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="15">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E14" s="15">
-        <f>D14+0.1%</f>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F14" s="15">
-        <f>E14+0.1%</f>
-        <v>4.7E-2</v>
-      </c>
-      <c r="G14" s="15">
-        <f>F14+0.1%</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H14" s="15">
-        <f>G14+0.1%</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36">
+    <row r="13" ht="13.75" customHeight="1">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>CapEx (% of Rev.)</t>
+        </is>
+      </c>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="14" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="E13" s="14">
+        <f>D13+0.1%</f>
+        <v/>
+      </c>
+      <c r="F13" s="14">
+        <f>E13+0.1%</f>
+        <v/>
+      </c>
+      <c r="G13" s="14">
+        <f>F13+0.1%</f>
+        <v/>
+      </c>
+      <c r="H13" s="14">
+        <f>G13+0.1%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="13.75" customHeight="1">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="30" t="n"/>
+      <c r="D14" s="22" t="n"/>
+      <c r="E14" s="22" t="n"/>
+      <c r="F14" s="22" t="n"/>
+      <c r="G14" s="22" t="n"/>
+      <c r="H14" s="23" t="n"/>
+    </row>
+    <row r="15" ht="13.75" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>Financial Assumptions</t>
+        </is>
+      </c>
+      <c r="B15" s="24" t="n"/>
+      <c r="C15" s="24" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="31" t="n"/>
+      <c r="G15" s="31" t="n"/>
+      <c r="H15" s="32" t="n"/>
+    </row>
+    <row r="16" ht="13.75" customHeight="1">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>Cash Interest</t>
+        </is>
+      </c>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="34" t="n"/>
+      <c r="D16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H16" s="35" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="36">
+    <row r="17" ht="13.75" customHeight="1">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>Long-Term Debt Interest</t>
+        </is>
+      </c>
+      <c r="B17" s="36" t="n"/>
+      <c r="C17" s="37" t="n"/>
+      <c r="D17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H17" s="35" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36">
+    <row r="18" ht="13.75" customHeight="1">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>Revolver Interest</t>
+        </is>
+      </c>
+      <c r="B18" s="36" t="n"/>
+      <c r="C18" s="37" t="n"/>
+      <c r="D18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H18" s="35" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="29">
+    <row r="19" ht="13.75" customHeight="1">
+      <c r="A19" s="38" t="inlineStr">
+        <is>
+          <t>Debt redemption (mandatory)</t>
+        </is>
+      </c>
+      <c r="B19" s="39" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H19" s="28" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2538,557 +2354,618 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" customWidth="1"/>
+    <col width="10.83203125" customWidth="1" min="1" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+    <row r="1" ht="13.75" customHeight="1">
+      <c r="A1" s="41" t="n"/>
+      <c r="B1" s="42" t="n"/>
+      <c r="C1" s="43" t="inlineStr">
+        <is>
+          <t>Assumptions</t>
+        </is>
+      </c>
+      <c r="D1" s="43" t="inlineStr">
+        <is>
+          <t>Year 1</t>
+        </is>
+      </c>
+      <c r="E1" s="43" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="F1" s="43" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="G1" s="43" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="H1" s="43" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.75" customHeight="1">
+      <c r="A2" s="44" t="inlineStr">
+        <is>
+          <t>P&amp;L Statement</t>
+        </is>
+      </c>
+      <c r="B2" s="45" t="n"/>
+      <c r="C2" s="46" t="n"/>
+      <c r="D2" s="46" t="n"/>
+      <c r="E2" s="46" t="n"/>
+      <c r="F2" s="46" t="n"/>
+      <c r="G2" s="46" t="n"/>
+      <c r="H2" s="46" t="n"/>
+    </row>
+    <row r="3" ht="13.75" customHeight="1">
+      <c r="A3" s="41" t="n"/>
+      <c r="B3" s="42" t="n"/>
+      <c r="C3" s="47" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="48" t="n"/>
+    </row>
+    <row r="4" ht="13.75" customHeight="1">
+      <c r="A4" s="49" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B4" s="50" t="n"/>
+      <c r="C4" s="28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="51" t="n"/>
+      <c r="E4" s="52" t="n"/>
+      <c r="F4" s="52" t="n"/>
+      <c r="G4" s="52" t="n"/>
+      <c r="H4" s="52" t="n"/>
+    </row>
+    <row r="5" ht="13.75" customHeight="1">
+      <c r="A5" s="49" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B5" s="50" t="n"/>
+      <c r="C5" s="28" t="n">
+        <v>-600</v>
+      </c>
+      <c r="D5" s="51" t="n"/>
+      <c r="E5" s="52" t="n"/>
+      <c r="F5" s="52" t="n"/>
+      <c r="G5" s="52" t="n"/>
+      <c r="H5" s="52" t="n"/>
+    </row>
+    <row r="6" ht="13.75" customHeight="1">
+      <c r="A6" s="53" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B6" s="54" t="n"/>
+      <c r="C6" s="55">
+        <f>C4+C5</f>
+        <v/>
+      </c>
+      <c r="D6" s="56" t="n"/>
+      <c r="E6" s="56" t="n"/>
+      <c r="F6" s="56" t="n"/>
+      <c r="G6" s="56" t="n"/>
+      <c r="H6" s="56" t="n"/>
+    </row>
+    <row r="7" ht="13.75" customHeight="1">
+      <c r="A7" s="57" t="inlineStr">
+        <is>
+          <t>% margin</t>
+        </is>
+      </c>
+      <c r="B7" s="58" t="n"/>
+      <c r="C7" s="59" t="n"/>
+      <c r="D7" s="60" t="n"/>
+      <c r="E7" s="60" t="n"/>
+      <c r="F7" s="60" t="n"/>
+      <c r="G7" s="60" t="n"/>
+      <c r="H7" s="60" t="n"/>
+    </row>
+    <row r="8" ht="13.75" customHeight="1">
+      <c r="A8" s="49" t="inlineStr">
+        <is>
+          <t>SG&amp;A</t>
+        </is>
+      </c>
+      <c r="B8" s="50" t="n"/>
+      <c r="C8" s="28" t="n">
+        <v>-125</v>
+      </c>
+      <c r="D8" s="61" t="n"/>
+      <c r="E8" s="62" t="n"/>
+      <c r="F8" s="62" t="n"/>
+      <c r="G8" s="62" t="n"/>
+      <c r="H8" s="62" t="n"/>
+    </row>
+    <row r="9" ht="13.75" customHeight="1">
+      <c r="A9" s="49" t="inlineStr">
+        <is>
+          <t>D&amp;A</t>
+        </is>
+      </c>
+      <c r="B9" s="50" t="n"/>
+      <c r="C9" s="28" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D9" s="51" t="n"/>
+      <c r="E9" s="52" t="n"/>
+      <c r="F9" s="52" t="n"/>
+      <c r="G9" s="52" t="n"/>
+      <c r="H9" s="52" t="n"/>
+    </row>
+    <row r="10" ht="13.75" customHeight="1">
+      <c r="A10" s="53" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="55">
+        <f>C6+C8+C9</f>
+        <v/>
+      </c>
+      <c r="D10" s="52" t="n"/>
+      <c r="E10" s="52" t="n"/>
+      <c r="F10" s="52" t="n"/>
+      <c r="G10" s="52" t="n"/>
+      <c r="H10" s="52" t="n"/>
+    </row>
+    <row r="11" ht="13.75" customHeight="1">
+      <c r="A11" s="57" t="inlineStr">
+        <is>
+          <t>% margin</t>
+        </is>
+      </c>
+      <c r="B11" s="54" t="n"/>
+      <c r="C11" s="59" t="n"/>
+      <c r="D11" s="56" t="n"/>
+      <c r="E11" s="56" t="n"/>
+      <c r="F11" s="56" t="n"/>
+      <c r="G11" s="56" t="n"/>
+      <c r="H11" s="56" t="n"/>
+    </row>
+    <row r="12" ht="13.75" customHeight="1">
+      <c r="A12" s="49" t="inlineStr">
+        <is>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="B12" s="63" t="n"/>
+      <c r="C12" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="49"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="29">
-        <v>-600</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58">
-        <f>C4+C5</f>
-        <v>400</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="49"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="29">
-        <v>-125</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="49"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="29">
-        <v>-50</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="58">
-        <f>C6+C8+C9</f>
-        <v>225</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="49"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="49"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="29">
-        <v>0</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="49"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="29">
+      <c r="D12" s="64" t="n"/>
+      <c r="E12" s="60" t="n"/>
+      <c r="F12" s="60" t="n"/>
+      <c r="G12" s="60" t="n"/>
+      <c r="H12" s="60" t="n"/>
+    </row>
+    <row r="13" ht="13.75" customHeight="1">
+      <c r="A13" s="49" t="inlineStr">
+        <is>
+          <t>Interest Expense</t>
+        </is>
+      </c>
+      <c r="B13" s="50" t="n"/>
+      <c r="C13" s="28" t="n">
         <v>-20</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="49"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="58">
+      <c r="D13" s="65" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="13.75" customHeight="1">
+      <c r="A14" s="53" t="inlineStr">
+        <is>
+          <t>Proft before Taxes</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="55">
         <f>C10+C12+C13</f>
-        <v>205</v>
-      </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="49"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="49"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71">
+        <v/>
+      </c>
+      <c r="D14" s="66" t="n"/>
+      <c r="E14" s="66" t="n"/>
+      <c r="F14" s="66" t="n"/>
+      <c r="G14" s="66" t="n"/>
+      <c r="H14" s="66" t="n"/>
+    </row>
+    <row r="15" ht="13.75" customHeight="1">
+      <c r="A15" s="57" t="inlineStr">
+        <is>
+          <t>% margin</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="59" t="n"/>
+      <c r="D15" s="52" t="n"/>
+      <c r="E15" s="52" t="n"/>
+      <c r="F15" s="52" t="n"/>
+      <c r="G15" s="52" t="n"/>
+      <c r="H15" s="52" t="n"/>
+    </row>
+    <row r="16" ht="13.75" customHeight="1">
+      <c r="A16" s="49" t="inlineStr">
+        <is>
+          <t>Tax Expenses</t>
+        </is>
+      </c>
+      <c r="B16" s="67" t="n"/>
+      <c r="C16" s="68" t="n">
         <v>-55</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="49"/>
-    </row>
-    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="73">
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="56" t="n"/>
+      <c r="F16" s="56" t="n"/>
+      <c r="G16" s="56" t="n"/>
+      <c r="H16" s="56" t="n"/>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="53" t="inlineStr">
+        <is>
+          <t>Net Income</t>
+        </is>
+      </c>
+      <c r="B17" s="58" t="n"/>
+      <c r="C17" s="70">
         <f>C14+C16</f>
-        <v>150</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="49"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="77"/>
+        <v/>
+      </c>
+      <c r="D17" s="60" t="n"/>
+      <c r="E17" s="60" t="n"/>
+      <c r="F17" s="60" t="n"/>
+      <c r="G17" s="60" t="n"/>
+      <c r="H17" s="60" t="n"/>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="71" t="n"/>
+      <c r="B18" s="72" t="n"/>
+      <c r="C18" s="73" t="n"/>
+      <c r="D18" s="46" t="n"/>
+      <c r="E18" s="46" t="n"/>
+      <c r="F18" s="46" t="n"/>
+      <c r="G18" s="46" t="n"/>
+      <c r="H18" s="46" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-    </row>
-    <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="74" t="n"/>
+      <c r="B1" s="75" t="inlineStr">
+        <is>
+          <t>Year 1</t>
+        </is>
+      </c>
+      <c r="C1" s="75" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D1" s="75" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="E1" s="75" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="F1" s="75" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1">
+      <c r="A2" s="76" t="inlineStr">
+        <is>
+          <t>5 Year P&amp;L Projection</t>
+        </is>
+      </c>
+      <c r="B2" s="77" t="n"/>
+      <c r="C2" s="77" t="n"/>
+      <c r="D2" s="78" t="n"/>
+      <c r="E2" s="78" t="n"/>
+      <c r="F2" s="78" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="79" t="inlineStr">
+        <is>
+          <t>Revenues</t>
+        </is>
+      </c>
+      <c r="B3" s="80" t="n">
         <v>1000</v>
       </c>
-      <c r="F3" s="85">
+      <c r="C3" s="80" t="n">
         <v>1040</v>
       </c>
-      <c r="G3" s="85">
-        <v>1081.5999999999999</v>
-      </c>
-      <c r="H3">
+      <c r="D3" s="80" t="n">
+        <v>1081.6</v>
+      </c>
+      <c r="E3" s="80" t="n">
         <v>1124.864</v>
       </c>
-      <c r="I3">
-        <v>1169.8585599999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
+      <c r="F3" s="80" t="n">
+        <v>1169.85856</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="81" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B4" s="82" t="n">
         <v>600</v>
       </c>
-      <c r="F4">
-        <v>625.24799999999993</v>
-      </c>
-      <c r="G4">
-        <v>651.55583999999999</v>
-      </c>
-      <c r="H4">
-        <v>678.96791040000005</v>
-      </c>
-      <c r="I4">
-        <v>707.53045708800005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
+      <c r="C4" s="82" t="n">
+        <v>625.2479999999999</v>
+      </c>
+      <c r="D4" s="82" t="n">
+        <v>651.55584</v>
+      </c>
+      <c r="E4" s="82" t="n">
+        <v>678.9679104000001</v>
+      </c>
+      <c r="F4" s="82" t="n">
+        <v>707.530457088</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="83" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B5" s="82" t="n">
         <v>400</v>
       </c>
-      <c r="F5">
-        <v>414.75200000000012</v>
-      </c>
-      <c r="G5">
-        <v>430.04416000000009</v>
-      </c>
-      <c r="H5">
-        <v>445.89608959999998</v>
-      </c>
-      <c r="I5">
-        <v>462.32810291200008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
+      <c r="C5" s="82" t="n">
+        <v>414.7520000000001</v>
+      </c>
+      <c r="D5" s="82" t="n">
+        <v>430.0441600000001</v>
+      </c>
+      <c r="E5" s="82" t="n">
+        <v>445.8960896</v>
+      </c>
+      <c r="F5" s="82" t="n">
+        <v>462.3281029120001</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="81" t="inlineStr">
+        <is>
+          <t>SG&amp;A</t>
+        </is>
+      </c>
+      <c r="B6" s="82" t="n">
         <v>80</v>
       </c>
-      <c r="F6">
+      <c r="C6" s="82" t="n">
         <v>83.2</v>
       </c>
-      <c r="G6">
-        <v>86.528000000000006</v>
-      </c>
-      <c r="H6">
+      <c r="D6" s="82" t="n">
+        <v>86.52800000000001</v>
+      </c>
+      <c r="E6" s="82" t="n">
         <v>89.98912</v>
       </c>
-      <c r="I6">
+      <c r="F6" s="82" t="n">
         <v>93.58868480000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="81" t="inlineStr">
+        <is>
+          <t>D&amp;A</t>
+        </is>
+      </c>
+      <c r="B7" s="82" t="n">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="C7" s="82" t="n">
         <v>52</v>
       </c>
-      <c r="G7">
-        <v>54.080000000000013</v>
-      </c>
-      <c r="H7">
-        <v>56.243200000000002</v>
-      </c>
-      <c r="I7">
-        <v>58.492928000000013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
+      <c r="D7" s="82" t="n">
+        <v>54.08000000000001</v>
+      </c>
+      <c r="E7" s="82" t="n">
+        <v>56.2432</v>
+      </c>
+      <c r="F7" s="82" t="n">
+        <v>58.49292800000001</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="81" t="inlineStr">
+        <is>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="B8" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="C8" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="D8" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="E8" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="F8" s="82" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="81" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="B9" s="82" t="n">
         <v>270</v>
       </c>
-      <c r="F9">
-        <v>279.55200000000008</v>
-      </c>
-      <c r="G9">
-        <v>289.43616000000009</v>
-      </c>
-      <c r="H9">
-        <v>299.66376960000002</v>
-      </c>
-      <c r="I9">
-        <v>310.24649011200012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>270</v>
-      </c>
-      <c r="F11">
-        <v>279.55200000000008</v>
-      </c>
-      <c r="G11">
-        <v>289.43616000000009</v>
-      </c>
-      <c r="H11">
-        <v>299.66376960000002</v>
-      </c>
-      <c r="I11">
-        <v>310.24649011200012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>210.6</v>
-      </c>
-      <c r="F12">
-        <v>218.0505600000001</v>
-      </c>
-      <c r="G12">
-        <v>225.76020480000011</v>
-      </c>
-      <c r="H12">
-        <v>233.737740288</v>
-      </c>
-      <c r="I12">
-        <v>241.99226228736009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83"/>
-    </row>
-    <row r="16" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
+      <c r="C9" s="82" t="n">
+        <v>279.5520000000001</v>
+      </c>
+      <c r="D9" s="82" t="n">
+        <v>289.4361600000001</v>
+      </c>
+      <c r="E9" s="82" t="n">
+        <v>299.6637696</v>
+      </c>
+      <c r="F9" s="82" t="n">
+        <v>310.2464901120001</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="83" t="inlineStr">
+        <is>
+          <t>Interest Expense</t>
+        </is>
+      </c>
+      <c r="B10" s="82" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="C10" s="82" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="D10" s="82" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="E10" s="82" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="F10" s="82" t="n">
+        <v>19.9998</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="81" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="B11" s="82" t="n">
+        <v>250.0002</v>
+      </c>
+      <c r="C11" s="82" t="n">
+        <v>259.5522000000001</v>
+      </c>
+      <c r="D11" s="82" t="n">
+        <v>269.4363600000001</v>
+      </c>
+      <c r="E11" s="82" t="n">
+        <v>279.6639696</v>
+      </c>
+      <c r="F11" s="82" t="n">
+        <v>290.2466901120001</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="83" t="inlineStr">
+        <is>
+          <t>Net Income</t>
+        </is>
+      </c>
+      <c r="B12" s="82" t="n">
+        <v>195.000156</v>
+      </c>
+      <c r="C12" s="82" t="n">
+        <v>202.4507160000001</v>
+      </c>
+      <c r="D12" s="82" t="n">
+        <v>210.1603608000001</v>
+      </c>
+      <c r="E12" s="82" t="n">
+        <v>218.137896288</v>
+      </c>
+      <c r="F12" s="82" t="n">
+        <v>226.39241828736</v>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1">
+      <c r="A13" s="82" t="n"/>
+      <c r="B13" s="82" t="n"/>
+      <c r="C13" s="82" t="n"/>
+      <c r="D13" s="82" t="n"/>
+      <c r="E13" s="82" t="n"/>
+      <c r="F13" s="82" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dummydata.xlsx
+++ b/dummydata.xlsx
@@ -1,115 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbaime/Desktop/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11664E5E-787A-0D41-8DC8-D31708A3A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10960" yWindow="760" windowWidth="15960" windowHeight="17840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="7160" yWindow="760" windowWidth="15960" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Base Rates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Statement" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Base Rates" sheetId="1" r:id="rId1"/>
+    <sheet name="Assumptions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 4 </t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>P&amp;L Statement</t>
+  </si>
+  <si>
+    <t>Revenue (Yoy.)</t>
+  </si>
+  <si>
+    <t>COGS (increasing marging)</t>
+  </si>
+  <si>
+    <t>SG&amp;A (% of Rev.)</t>
+  </si>
+  <si>
+    <t>D&amp;A (% of Rev.)</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Balance Sheet Statement</t>
+  </si>
+  <si>
+    <t>Inventory Days</t>
+  </si>
+  <si>
+    <t>Debtor Days</t>
+  </si>
+  <si>
+    <t>Creditor Days</t>
+  </si>
+  <si>
+    <t>CapEx (% of Rev.)</t>
+  </si>
+  <si>
+    <t>Financial Assumptions</t>
+  </si>
+  <si>
+    <t>Cash Interest</t>
+  </si>
+  <si>
+    <t>Long-Term Debt Interest</t>
+  </si>
+  <si>
+    <t>Revolver Interest</t>
+  </si>
+  <si>
+    <t>Debt redemption (mandatory)</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>% margin</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Proft before Taxes</t>
+  </si>
+  <si>
+    <t>Tax Expenses</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\);&quot;-&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0%;\(0.0%\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0;\(#,##0.0\);&quot;-&quot;"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0&quot;E&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\);\-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="11"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <i val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,20 +209,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -539,261 +610,232 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="74">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -863,6 +905,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1910,443 +1960,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="10.83203125" customWidth="1" min="1" max="9"/>
+    <col min="1" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Assumptions</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Year 1</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Year 4 </t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="13.75" customHeight="1">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>P&amp;L Statement</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="13.75" customHeight="1">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>Revenue (Yoy.)</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="14" t="n">
+    <row r="1" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14">
         <v>0.04</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="14">
         <v>0.04</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="14">
         <v>0.04</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="14">
         <v>0.04</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" ht="13.75" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>COGS (increasing marging)</t>
-        </is>
-      </c>
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="17" t="n"/>
-      <c r="D4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="E4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="F4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="G4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-    </row>
-    <row r="5" ht="13.75" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>SG&amp;A (% of Rev.)</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="20" t="n">
+    <row r="4" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20">
         <v>0.08</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="14">
         <v>0.08</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>0.08</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="14">
         <v>0.08</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="14">
         <v>0.08</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" ht="13.75" customHeight="1">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>D&amp;A (% of Rev.)</t>
-        </is>
-      </c>
-      <c r="B6" s="19" t="n"/>
-      <c r="C6" s="20" t="n">
+    <row r="6" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20">
         <v>0.05</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="14">
         <v>0.05</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="14">
         <v>0.05</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="14">
         <v>0.05</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="14">
         <v>0.05</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="13.75" customHeight="1">
-      <c r="A7" s="15" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n"/>
-      <c r="C7" s="20" t="n">
+    <row r="7" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20">
         <v>0.2</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="14">
         <v>0.22</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="14">
         <v>0.22</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="14">
         <v>0.22</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="14">
         <v>0.22</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="14">
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" ht="13.75" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="21" t="n"/>
-      <c r="D8" s="22" t="n"/>
-      <c r="E8" s="22" t="n"/>
-      <c r="F8" s="22" t="n"/>
-      <c r="G8" s="22" t="n"/>
-      <c r="H8" s="23" t="n"/>
-    </row>
-    <row r="9" ht="13.75" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>Balance Sheet Statement</t>
-        </is>
-      </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="13.75" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Inventory Days</t>
-        </is>
-      </c>
-      <c r="B10" s="26" t="n"/>
-      <c r="C10" s="27" t="n">
+    <row r="8" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27">
         <v>48</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="28">
         <v>41</v>
       </c>
-      <c r="E10" s="28" t="n">
+      <c r="E10" s="28">
         <v>41</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="28">
         <v>41</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="28">
         <v>41</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="28">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="13.75" customHeight="1">
-      <c r="A11" s="15" t="inlineStr">
-        <is>
-          <t>Debtor Days</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="27" t="n">
+    <row r="11" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="27">
         <v>55</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="28">
         <v>50</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="28">
         <v>50</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="28">
         <v>50</v>
       </c>
-      <c r="G11" s="28" t="n">
+      <c r="G11" s="28">
         <v>50</v>
       </c>
-      <c r="H11" s="28" t="n">
+      <c r="H11" s="28">
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="13.75" customHeight="1">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t>Creditor Days</t>
-        </is>
-      </c>
-      <c r="B12" s="19" t="n"/>
-      <c r="C12" s="27" t="n">
+    <row r="12" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="27">
         <v>48</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="28">
         <v>45</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="28">
         <v>45</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="28">
         <v>45</v>
       </c>
-      <c r="G12" s="28" t="n">
+      <c r="G12" s="28">
         <v>45</v>
       </c>
-      <c r="H12" s="28" t="n">
+      <c r="H12" s="28">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="13.75" customHeight="1">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>CapEx (% of Rev.)</t>
-        </is>
-      </c>
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="29" t="n"/>
-      <c r="D13" s="14" t="n">
-        <v>0.045</v>
+    <row r="13" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="14">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E13" s="14">
         <f>D13+0.1%</f>
-        <v/>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F13" s="14">
         <f>E13+0.1%</f>
-        <v/>
+        <v>4.7E-2</v>
       </c>
       <c r="G13" s="14">
         <f>F13+0.1%</f>
-        <v/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H13" s="14">
         <f>G13+0.1%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="13.75" customHeight="1">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="30" t="n"/>
-      <c r="D14" s="22" t="n"/>
-      <c r="E14" s="22" t="n"/>
-      <c r="F14" s="22" t="n"/>
-      <c r="G14" s="22" t="n"/>
-      <c r="H14" s="23" t="n"/>
-    </row>
-    <row r="15" ht="13.75" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>Financial Assumptions</t>
-        </is>
-      </c>
-      <c r="B15" s="24" t="n"/>
-      <c r="C15" s="24" t="n"/>
-      <c r="D15" s="31" t="n"/>
-      <c r="E15" s="31" t="n"/>
-      <c r="F15" s="31" t="n"/>
-      <c r="G15" s="31" t="n"/>
-      <c r="H15" s="32" t="n"/>
-    </row>
-    <row r="16" ht="13.75" customHeight="1">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>Cash Interest</t>
-        </is>
-      </c>
-      <c r="B16" s="33" t="n"/>
-      <c r="C16" s="34" t="n"/>
-      <c r="D16" s="35" t="n">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35">
         <v>0.03</v>
       </c>
-      <c r="E16" s="35" t="n">
+      <c r="E16" s="35">
         <v>0.03</v>
       </c>
-      <c r="F16" s="35" t="n">
+      <c r="F16" s="35">
         <v>0.03</v>
       </c>
-      <c r="G16" s="35" t="n">
+      <c r="G16" s="35">
         <v>0.03</v>
       </c>
-      <c r="H16" s="35" t="n">
+      <c r="H16" s="35">
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" ht="13.75" customHeight="1">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>Long-Term Debt Interest</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="n"/>
-      <c r="C17" s="37" t="n"/>
-      <c r="D17" s="35" t="n">
+    <row r="17" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="35">
         <v>0.06</v>
       </c>
-      <c r="E17" s="35" t="n">
+      <c r="E17" s="35">
         <v>0.06</v>
       </c>
-      <c r="F17" s="35" t="n">
+      <c r="F17" s="35">
         <v>0.06</v>
       </c>
-      <c r="G17" s="35" t="n">
+      <c r="G17" s="35">
         <v>0.06</v>
       </c>
-      <c r="H17" s="35" t="n">
+      <c r="H17" s="35">
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" ht="13.75" customHeight="1">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
-          <t>Revolver Interest</t>
-        </is>
-      </c>
-      <c r="B18" s="36" t="n"/>
-      <c r="C18" s="37" t="n"/>
-      <c r="D18" s="35" t="n">
+    <row r="18" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="35">
         <v>0.09</v>
       </c>
-      <c r="E18" s="35" t="n">
+      <c r="E18" s="35">
         <v>0.09</v>
       </c>
-      <c r="F18" s="35" t="n">
+      <c r="F18" s="35">
         <v>0.09</v>
       </c>
-      <c r="G18" s="35" t="n">
+      <c r="G18" s="35">
         <v>0.09</v>
       </c>
-      <c r="H18" s="35" t="n">
+      <c r="H18" s="35">
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" ht="13.75" customHeight="1">
-      <c r="A19" s="38" t="inlineStr">
-        <is>
-          <t>Debt redemption (mandatory)</t>
-        </is>
-      </c>
-      <c r="B19" s="39" t="n"/>
-      <c r="C19" s="40" t="n"/>
-      <c r="D19" s="28" t="n">
+    <row r="19" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="28">
         <v>95</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="28">
         <v>95</v>
       </c>
-      <c r="F19" s="28" t="n">
+      <c r="F19" s="28">
         <v>95</v>
       </c>
-      <c r="G19" s="28" t="n">
+      <c r="G19" s="28">
         <v>95</v>
       </c>
-      <c r="H19" s="28" t="n">
+      <c r="H19" s="28">
         <v>95</v>
       </c>
     </row>
@@ -2354,620 +2356,255 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="10.83203125" customWidth="1" min="1" max="9"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" customHeight="1">
-      <c r="A1" s="41" t="n"/>
-      <c r="B1" s="42" t="n"/>
-      <c r="C1" s="43" t="inlineStr">
-        <is>
-          <t>Assumptions</t>
-        </is>
-      </c>
-      <c r="D1" s="43" t="inlineStr">
-        <is>
-          <t>Year 1</t>
-        </is>
-      </c>
-      <c r="E1" s="43" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="F1" s="43" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="G1" s="43" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="H1" s="43" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="13.75" customHeight="1">
-      <c r="A2" s="44" t="inlineStr">
-        <is>
-          <t>P&amp;L Statement</t>
-        </is>
-      </c>
-      <c r="B2" s="45" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="46" t="n"/>
-      <c r="H2" s="46" t="n"/>
-    </row>
-    <row r="3" ht="13.75" customHeight="1">
-      <c r="A3" s="41" t="n"/>
-      <c r="B3" s="42" t="n"/>
-      <c r="C3" s="47" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="48" t="n"/>
-    </row>
-    <row r="4" ht="13.75" customHeight="1">
-      <c r="A4" s="49" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B4" s="50" t="n"/>
-      <c r="C4" s="28" t="n">
+    <row r="1" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41"/>
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="50">
         <v>1000</v>
       </c>
-      <c r="D4" s="51" t="n"/>
-      <c r="E4" s="52" t="n"/>
-      <c r="F4" s="52" t="n"/>
-      <c r="G4" s="52" t="n"/>
-      <c r="H4" s="52" t="n"/>
-    </row>
-    <row r="5" ht="13.75" customHeight="1">
-      <c r="A5" s="49" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B5" s="50" t="n"/>
-      <c r="C5" s="28" t="n">
-        <v>-600</v>
-      </c>
-      <c r="D5" s="51" t="n"/>
-      <c r="E5" s="52" t="n"/>
-      <c r="F5" s="52" t="n"/>
-      <c r="G5" s="52" t="n"/>
-      <c r="H5" s="52" t="n"/>
-    </row>
-    <row r="6" ht="13.75" customHeight="1">
-      <c r="A6" s="53" t="inlineStr">
-        <is>
-          <t>Gross Profit</t>
-        </is>
-      </c>
-      <c r="B6" s="54" t="n"/>
-      <c r="C6" s="55">
-        <f>C4+C5</f>
-        <v/>
-      </c>
-      <c r="D6" s="56" t="n"/>
-      <c r="E6" s="56" t="n"/>
-      <c r="F6" s="56" t="n"/>
-      <c r="G6" s="56" t="n"/>
-      <c r="H6" s="56" t="n"/>
-    </row>
-    <row r="7" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="inlineStr">
-        <is>
-          <t>% margin</t>
-        </is>
-      </c>
-      <c r="B7" s="58" t="n"/>
-      <c r="C7" s="59" t="n"/>
-      <c r="D7" s="60" t="n"/>
-      <c r="E7" s="60" t="n"/>
-      <c r="F7" s="60" t="n"/>
-      <c r="G7" s="60" t="n"/>
-      <c r="H7" s="60" t="n"/>
-    </row>
-    <row r="8" ht="13.75" customHeight="1">
-      <c r="A8" s="49" t="inlineStr">
-        <is>
-          <t>SG&amp;A</t>
-        </is>
-      </c>
-      <c r="B8" s="50" t="n"/>
-      <c r="C8" s="28" t="n">
-        <v>-125</v>
-      </c>
-      <c r="D8" s="61" t="n"/>
-      <c r="E8" s="62" t="n"/>
-      <c r="F8" s="62" t="n"/>
-      <c r="G8" s="62" t="n"/>
-      <c r="H8" s="62" t="n"/>
-    </row>
-    <row r="9" ht="13.75" customHeight="1">
-      <c r="A9" s="49" t="inlineStr">
-        <is>
-          <t>D&amp;A</t>
-        </is>
-      </c>
-      <c r="B9" s="50" t="n"/>
-      <c r="C9" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D9" s="51" t="n"/>
-      <c r="E9" s="52" t="n"/>
-      <c r="F9" s="52" t="n"/>
-      <c r="G9" s="52" t="n"/>
-      <c r="H9" s="52" t="n"/>
-    </row>
-    <row r="10" ht="13.75" customHeight="1">
-      <c r="A10" s="53" t="inlineStr">
-        <is>
-          <t>EBIT</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="55">
-        <f>C6+C8+C9</f>
-        <v/>
-      </c>
-      <c r="D10" s="52" t="n"/>
-      <c r="E10" s="52" t="n"/>
-      <c r="F10" s="52" t="n"/>
-      <c r="G10" s="52" t="n"/>
-      <c r="H10" s="52" t="n"/>
-    </row>
-    <row r="11" ht="13.75" customHeight="1">
-      <c r="A11" s="57" t="inlineStr">
-        <is>
-          <t>% margin</t>
-        </is>
-      </c>
-      <c r="B11" s="54" t="n"/>
-      <c r="C11" s="59" t="n"/>
-      <c r="D11" s="56" t="n"/>
-      <c r="E11" s="56" t="n"/>
-      <c r="F11" s="56" t="n"/>
-      <c r="G11" s="56" t="n"/>
-      <c r="H11" s="56" t="n"/>
-    </row>
-    <row r="12" ht="13.75" customHeight="1">
-      <c r="A12" s="49" t="inlineStr">
-        <is>
-          <t>Interest Income</t>
-        </is>
-      </c>
-      <c r="B12" s="63" t="n"/>
-      <c r="C12" s="28" t="n">
+      <c r="C4" s="28"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="50">
+        <v>600</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="54">
+        <v>400</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="50">
+        <v>80</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="50">
+        <v>50</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6">
+        <v>270</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="63">
         <v>0</v>
       </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="60" t="n"/>
-      <c r="F12" s="60" t="n"/>
-      <c r="G12" s="60" t="n"/>
-      <c r="H12" s="60" t="n"/>
-    </row>
-    <row r="13" ht="13.75" customHeight="1">
-      <c r="A13" s="49" t="inlineStr">
-        <is>
-          <t>Interest Expense</t>
-        </is>
-      </c>
-      <c r="B13" s="50" t="n"/>
-      <c r="C13" s="28" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D13" s="65" t="n"/>
-      <c r="E13" s="6" t="n"/>
-      <c r="F13" s="6" t="n"/>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="13.75" customHeight="1">
-      <c r="A14" s="53" t="inlineStr">
-        <is>
-          <t>Proft before Taxes</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="55">
-        <f>C10+C12+C13</f>
-        <v/>
-      </c>
-      <c r="D14" s="66" t="n"/>
-      <c r="E14" s="66" t="n"/>
-      <c r="F14" s="66" t="n"/>
-      <c r="G14" s="66" t="n"/>
-      <c r="H14" s="66" t="n"/>
-    </row>
-    <row r="15" ht="13.75" customHeight="1">
-      <c r="A15" s="57" t="inlineStr">
-        <is>
-          <t>% margin</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="59" t="n"/>
-      <c r="D15" s="52" t="n"/>
-      <c r="E15" s="52" t="n"/>
-      <c r="F15" s="52" t="n"/>
-      <c r="G15" s="52" t="n"/>
-      <c r="H15" s="52" t="n"/>
-    </row>
-    <row r="16" ht="13.75" customHeight="1">
-      <c r="A16" s="49" t="inlineStr">
-        <is>
-          <t>Tax Expenses</t>
-        </is>
-      </c>
-      <c r="B16" s="67" t="n"/>
-      <c r="C16" s="68" t="n">
-        <v>-55</v>
-      </c>
-      <c r="D16" s="69" t="n"/>
-      <c r="E16" s="56" t="n"/>
-      <c r="F16" s="56" t="n"/>
-      <c r="G16" s="56" t="n"/>
-      <c r="H16" s="56" t="n"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="53" t="inlineStr">
-        <is>
-          <t>Net Income</t>
-        </is>
-      </c>
-      <c r="B17" s="58" t="n"/>
-      <c r="C17" s="70">
-        <f>C14+C16</f>
-        <v/>
-      </c>
-      <c r="D17" s="60" t="n"/>
-      <c r="E17" s="60" t="n"/>
-      <c r="F17" s="60" t="n"/>
-      <c r="G17" s="60" t="n"/>
-      <c r="H17" s="60" t="n"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="71" t="n"/>
-      <c r="B18" s="72" t="n"/>
-      <c r="C18" s="73" t="n"/>
-      <c r="D18" s="46" t="n"/>
-      <c r="E18" s="46" t="n"/>
-      <c r="F18" s="46" t="n"/>
-      <c r="G18" s="46" t="n"/>
-      <c r="H18" s="46" t="n"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="50">
+        <v>20</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6">
+        <v>250</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="67">
+        <v>55</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="58">
+        <v>195</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="74" t="n"/>
-      <c r="B1" s="75" t="inlineStr">
-        <is>
-          <t>Year 1</t>
-        </is>
-      </c>
-      <c r="C1" s="75" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="D1" s="75" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="E1" s="75" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="F1" s="75" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" s="76" t="inlineStr">
-        <is>
-          <t>5 Year P&amp;L Projection</t>
-        </is>
-      </c>
-      <c r="B2" s="77" t="n"/>
-      <c r="C2" s="77" t="n"/>
-      <c r="D2" s="78" t="n"/>
-      <c r="E2" s="78" t="n"/>
-      <c r="F2" s="78" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="79" t="inlineStr">
-        <is>
-          <t>Revenues</t>
-        </is>
-      </c>
-      <c r="B3" s="80" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="80" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D3" s="80" t="n">
-        <v>1081.6</v>
-      </c>
-      <c r="E3" s="80" t="n">
-        <v>1124.864</v>
-      </c>
-      <c r="F3" s="80" t="n">
-        <v>1169.85856</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="81" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B4" s="82" t="n">
-        <v>600</v>
-      </c>
-      <c r="C4" s="82" t="n">
-        <v>625.2479999999999</v>
-      </c>
-      <c r="D4" s="82" t="n">
-        <v>651.55584</v>
-      </c>
-      <c r="E4" s="82" t="n">
-        <v>678.9679104000001</v>
-      </c>
-      <c r="F4" s="82" t="n">
-        <v>707.530457088</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="83" t="inlineStr">
-        <is>
-          <t>Gross Profit</t>
-        </is>
-      </c>
-      <c r="B5" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="C5" s="82" t="n">
-        <v>414.7520000000001</v>
-      </c>
-      <c r="D5" s="82" t="n">
-        <v>430.0441600000001</v>
-      </c>
-      <c r="E5" s="82" t="n">
-        <v>445.8960896</v>
-      </c>
-      <c r="F5" s="82" t="n">
-        <v>462.3281029120001</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="81" t="inlineStr">
-        <is>
-          <t>SG&amp;A</t>
-        </is>
-      </c>
-      <c r="B6" s="82" t="n">
-        <v>80</v>
-      </c>
-      <c r="C6" s="82" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="D6" s="82" t="n">
-        <v>86.52800000000001</v>
-      </c>
-      <c r="E6" s="82" t="n">
-        <v>89.98912</v>
-      </c>
-      <c r="F6" s="82" t="n">
-        <v>93.58868480000001</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="81" t="inlineStr">
-        <is>
-          <t>D&amp;A</t>
-        </is>
-      </c>
-      <c r="B7" s="82" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" s="82" t="n">
-        <v>52</v>
-      </c>
-      <c r="D7" s="82" t="n">
-        <v>54.08000000000001</v>
-      </c>
-      <c r="E7" s="82" t="n">
-        <v>56.2432</v>
-      </c>
-      <c r="F7" s="82" t="n">
-        <v>58.49292800000001</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="81" t="inlineStr">
-        <is>
-          <t>Interest Income</t>
-        </is>
-      </c>
-      <c r="B8" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="81" t="inlineStr">
-        <is>
-          <t>EBIT</t>
-        </is>
-      </c>
-      <c r="B9" s="82" t="n">
-        <v>270</v>
-      </c>
-      <c r="C9" s="82" t="n">
-        <v>279.5520000000001</v>
-      </c>
-      <c r="D9" s="82" t="n">
-        <v>289.4361600000001</v>
-      </c>
-      <c r="E9" s="82" t="n">
-        <v>299.6637696</v>
-      </c>
-      <c r="F9" s="82" t="n">
-        <v>310.2464901120001</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="83" t="inlineStr">
-        <is>
-          <t>Interest Expense</t>
-        </is>
-      </c>
-      <c r="B10" s="82" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="C10" s="82" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="D10" s="82" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="E10" s="82" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="F10" s="82" t="n">
-        <v>19.9998</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="81" t="inlineStr">
-        <is>
-          <t>Profit Before Tax</t>
-        </is>
-      </c>
-      <c r="B11" s="82" t="n">
-        <v>250.0002</v>
-      </c>
-      <c r="C11" s="82" t="n">
-        <v>259.5522000000001</v>
-      </c>
-      <c r="D11" s="82" t="n">
-        <v>269.4363600000001</v>
-      </c>
-      <c r="E11" s="82" t="n">
-        <v>279.6639696</v>
-      </c>
-      <c r="F11" s="82" t="n">
-        <v>290.2466901120001</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="83" t="inlineStr">
-        <is>
-          <t>Net Income</t>
-        </is>
-      </c>
-      <c r="B12" s="82" t="n">
-        <v>195.000156</v>
-      </c>
-      <c r="C12" s="82" t="n">
-        <v>202.4507160000001</v>
-      </c>
-      <c r="D12" s="82" t="n">
-        <v>210.1603608000001</v>
-      </c>
-      <c r="E12" s="82" t="n">
-        <v>218.137896288</v>
-      </c>
-      <c r="F12" s="82" t="n">
-        <v>226.39241828736</v>
-      </c>
-    </row>
-    <row r="13" ht="14" customHeight="1">
-      <c r="A13" s="82" t="n"/>
-      <c r="B13" s="82" t="n"/>
-      <c r="C13" s="82" t="n"/>
-      <c r="D13" s="82" t="n"/>
-      <c r="E13" s="82" t="n"/>
-      <c r="F13" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/dummydata.xlsx
+++ b/dummydata.xlsx
@@ -1,198 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbaime/Desktop/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11664E5E-787A-0D41-8DC8-D31708A3A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="760" windowWidth="15960" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7160" yWindow="760" windowWidth="15960" windowHeight="17840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Base Rates" sheetId="1" r:id="rId1"/>
-    <sheet name="Assumptions" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Base Rates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" iterate="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
-  <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 4 </t>
-  </si>
-  <si>
-    <t>Year 5</t>
-  </si>
-  <si>
-    <t>P&amp;L Statement</t>
-  </si>
-  <si>
-    <t>Revenue (Yoy.)</t>
-  </si>
-  <si>
-    <t>COGS (increasing marging)</t>
-  </si>
-  <si>
-    <t>SG&amp;A (% of Rev.)</t>
-  </si>
-  <si>
-    <t>D&amp;A (% of Rev.)</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Balance Sheet Statement</t>
-  </si>
-  <si>
-    <t>Inventory Days</t>
-  </si>
-  <si>
-    <t>Debtor Days</t>
-  </si>
-  <si>
-    <t>Creditor Days</t>
-  </si>
-  <si>
-    <t>CapEx (% of Rev.)</t>
-  </si>
-  <si>
-    <t>Financial Assumptions</t>
-  </si>
-  <si>
-    <t>Cash Interest</t>
-  </si>
-  <si>
-    <t>Long-Term Debt Interest</t>
-  </si>
-  <si>
-    <t>Revolver Interest</t>
-  </si>
-  <si>
-    <t>Debt redemption (mandatory)</t>
-  </si>
-  <si>
-    <t>Year 4</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>% margin</t>
-  </si>
-  <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
-    <t>EBIT</t>
-  </si>
-  <si>
-    <t>Interest Income</t>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-  </si>
-  <si>
-    <t>Proft before Taxes</t>
-  </si>
-  <si>
-    <t>Tax Expenses</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\);&quot;-&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0;\(#,##0.0\);&quot;-&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
+      <name val="Aptos Narrow"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="11"/>
+      <sz val="10"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <i val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -614,228 +483,214 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -905,14 +760,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1960,395 +1807,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="10.83203125" customWidth="1"/>
+    <col width="10.83203125" customWidth="1" min="1" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14">
+    <row r="1" ht="14" customHeight="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Assumptions</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Year 1</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Year 4 </t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.75" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>P&amp;L Statement</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.75" customHeight="1">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>Revenue (Yoy.)</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="14" t="n">
         <v>0.04</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="14" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G4" s="18">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="H4" s="18">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20">
+    <row r="4" ht="13.75" customHeight="1">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>COGS (increasing marging)</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="17" t="n"/>
+      <c r="D4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="H4" s="18" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="5" ht="13.75" customHeight="1">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>SG&amp;A (% of Rev.)</t>
+        </is>
+      </c>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="14" t="n">
         <v>0.08</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="14" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20">
+    <row r="6" ht="13.75" customHeight="1">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>D&amp;A (% of Rev.)</t>
+        </is>
+      </c>
+      <c r="B6" s="19" t="n"/>
+      <c r="C6" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="14" t="n">
         <v>0.05</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="14" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20">
+    <row r="7" ht="13.75" customHeight="1">
+      <c r="A7" s="15" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="14" t="n">
         <v>0.22</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="14" t="n">
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27">
+    <row r="8" ht="13.75" customHeight="1">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="21" t="n"/>
+      <c r="D8" s="22" t="n"/>
+      <c r="E8" s="22" t="n"/>
+      <c r="F8" s="22" t="n"/>
+      <c r="G8" s="22" t="n"/>
+      <c r="H8" s="23" t="n"/>
+    </row>
+    <row r="9" ht="13.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Balance Sheet Statement</t>
+        </is>
+      </c>
+      <c r="B9" s="24" t="n"/>
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="13.75" customHeight="1">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>Inventory Days</t>
+        </is>
+      </c>
+      <c r="B10" s="26" t="n"/>
+      <c r="C10" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="28" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="27">
+    <row r="11" ht="13.75" customHeight="1">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>Debtor Days</t>
+        </is>
+      </c>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="27" t="n">
         <v>55</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="28" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="27">
+    <row r="12" ht="13.75" customHeight="1">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>Creditor Days</t>
+        </is>
+      </c>
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="28" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="14">
-        <v>4.4999999999999998E-2</v>
+    <row r="13" ht="13.75" customHeight="1">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>CapEx (% of Rev.)</t>
+        </is>
+      </c>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="14" t="n">
+        <v>0.045</v>
       </c>
       <c r="E13" s="14">
         <f>D13+0.1%</f>
-        <v>4.5999999999999999E-2</v>
+        <v/>
       </c>
       <c r="F13" s="14">
         <f>E13+0.1%</f>
-        <v>4.7E-2</v>
+        <v/>
       </c>
       <c r="G13" s="14">
         <f>F13+0.1%</f>
-        <v>4.8000000000000001E-2</v>
+        <v/>
       </c>
       <c r="H13" s="14">
         <f>G13+0.1%</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="13.75" customHeight="1">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="30" t="n"/>
+      <c r="D14" s="22" t="n"/>
+      <c r="E14" s="22" t="n"/>
+      <c r="F14" s="22" t="n"/>
+      <c r="G14" s="22" t="n"/>
+      <c r="H14" s="23" t="n"/>
+    </row>
+    <row r="15" ht="13.75" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>Financial Assumptions</t>
+        </is>
+      </c>
+      <c r="B15" s="24" t="n"/>
+      <c r="C15" s="24" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="31" t="n"/>
+      <c r="G15" s="31" t="n"/>
+      <c r="H15" s="32" t="n"/>
+    </row>
+    <row r="16" ht="13.75" customHeight="1">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>Cash Interest</t>
+        </is>
+      </c>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="34" t="n"/>
+      <c r="D16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="35" t="n">
         <v>0.03</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="35" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="35">
+    <row r="17" ht="13.75" customHeight="1">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>Long-Term Debt Interest</t>
+        </is>
+      </c>
+      <c r="B17" s="36" t="n"/>
+      <c r="C17" s="37" t="n"/>
+      <c r="D17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="35" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="35">
+    <row r="18" ht="13.75" customHeight="1">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>Revolver Interest</t>
+        </is>
+      </c>
+      <c r="B18" s="36" t="n"/>
+      <c r="C18" s="37" t="n"/>
+      <c r="D18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="35" t="n">
         <v>0.09</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="35" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="28">
+    <row r="19" ht="13.75" customHeight="1">
+      <c r="A19" s="38" t="inlineStr">
+        <is>
+          <t>Debt redemption (mandatory)</t>
+        </is>
+      </c>
+      <c r="B19" s="39" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="28" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2356,255 +2251,409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="1"/>
+    <col width="10.83203125" customWidth="1" min="1" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="43" t="s">
+    <row r="1" ht="13.75" customHeight="1">
+      <c r="A1" s="41" t="n"/>
+      <c r="B1" s="43" t="inlineStr">
+        <is>
+          <t>Assumptions</t>
+        </is>
+      </c>
+      <c r="C1" s="43" t="inlineStr">
+        <is>
+          <t>Year 1</t>
+        </is>
+      </c>
+      <c r="D1" s="43" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="E1" s="43" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="F1" s="43" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="G1" s="43" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.75" customHeight="1">
+      <c r="A2" s="44" t="inlineStr">
+        <is>
+          <t>P&amp;L Statement</t>
+        </is>
+      </c>
+      <c r="B2" s="45" t="n"/>
+      <c r="C2" s="46" t="n"/>
+      <c r="D2" s="46" t="n"/>
+      <c r="E2" s="46" t="n"/>
+      <c r="F2" s="46" t="n"/>
+      <c r="G2" s="46" t="n"/>
+    </row>
+    <row r="3" ht="13.75" customHeight="1">
+      <c r="A3" s="41" t="n"/>
+      <c r="B3" s="42" t="n"/>
+      <c r="C3" s="63" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+    </row>
+    <row r="4" ht="13.75" customHeight="1">
+      <c r="A4" s="47" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B4" s="48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="56" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="54" t="n">
+        <v>1081.6</v>
+      </c>
+      <c r="E4" s="55" t="n">
+        <v>1124.864</v>
+      </c>
+      <c r="F4" s="55" t="n">
+        <v>1169.85856</v>
+      </c>
+      <c r="G4" s="55" t="n">
+        <v>1216.6529024</v>
+      </c>
+    </row>
+    <row r="5" ht="13.75" customHeight="1">
+      <c r="A5" s="47" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B5" s="48" t="n">
+        <v>600</v>
+      </c>
+      <c r="C5" s="56" t="n">
+        <v>625.2479999999999</v>
+      </c>
+      <c r="D5" s="54" t="n">
+        <v>651.55584</v>
+      </c>
+      <c r="E5" s="55" t="n">
+        <v>678.9679104000001</v>
+      </c>
+      <c r="F5" s="55" t="n">
+        <v>707.530457088</v>
+      </c>
+      <c r="G5" s="55" t="n">
+        <v>737.2916588544001</v>
+      </c>
+    </row>
+    <row r="6" ht="13.75" customHeight="1">
+      <c r="A6" s="49" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B6" s="50" t="n">
+        <v>400</v>
+      </c>
+      <c r="C6" s="65" t="n">
+        <v>414.7520000000001</v>
+      </c>
+      <c r="D6" s="60" t="n">
+        <v>430.0441600000001</v>
+      </c>
+      <c r="E6" s="60" t="n">
+        <v>445.8960896</v>
+      </c>
+      <c r="F6" s="60" t="n">
+        <v>462.3281029120001</v>
+      </c>
+      <c r="G6" s="60" t="n">
+        <v>479.3612435456</v>
+      </c>
+    </row>
+    <row r="7" ht="13.75" customHeight="1">
+      <c r="A7" s="51" t="inlineStr">
+        <is>
+          <t>% margin</t>
+        </is>
+      </c>
+      <c r="B7" s="52" t="n"/>
+      <c r="C7" s="66" t="n"/>
+      <c r="D7" s="62" t="n"/>
+      <c r="E7" s="62" t="n"/>
+      <c r="F7" s="62" t="n"/>
+      <c r="G7" s="62" t="n"/>
+    </row>
+    <row r="8" ht="13.75" customHeight="1">
+      <c r="A8" s="47" t="inlineStr">
+        <is>
+          <t>SG&amp;A</t>
+        </is>
+      </c>
+      <c r="B8" s="48" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" s="56" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="D8" s="54" t="n">
+        <v>86.52800000000001</v>
+      </c>
+      <c r="E8" s="55" t="n">
+        <v>89.98912</v>
+      </c>
+      <c r="F8" s="55" t="n">
+        <v>93.58868480000001</v>
+      </c>
+      <c r="G8" s="55" t="n">
+        <v>97.33223219200001</v>
+      </c>
+    </row>
+    <row r="9" ht="13.75" customHeight="1">
+      <c r="A9" s="47" t="inlineStr">
+        <is>
+          <t>D&amp;A</t>
+        </is>
+      </c>
+      <c r="B9" s="48" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" s="56" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" s="54" t="n">
+        <v>54.08000000000001</v>
+      </c>
+      <c r="E9" s="55" t="n">
+        <v>56.2432</v>
+      </c>
+      <c r="F9" s="55" t="n">
+        <v>58.49292800000001</v>
+      </c>
+      <c r="G9" s="55" t="n">
+        <v>60.83264512000001</v>
+      </c>
+    </row>
+    <row r="10" ht="13.75" customHeight="1">
+      <c r="A10" s="49" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>270</v>
+      </c>
+      <c r="C10" s="65" t="n"/>
+      <c r="D10" s="55" t="n"/>
+      <c r="E10" s="55" t="n"/>
+      <c r="F10" s="55" t="n"/>
+      <c r="G10" s="55" t="n"/>
+    </row>
+    <row r="11" ht="13.75" customHeight="1">
+      <c r="A11" s="51" t="inlineStr">
+        <is>
+          <t>% margin</t>
+        </is>
+      </c>
+      <c r="B11" s="50" t="n"/>
+      <c r="C11" s="66" t="n"/>
+      <c r="D11" s="60" t="n"/>
+      <c r="E11" s="60" t="n"/>
+      <c r="F11" s="60" t="n"/>
+      <c r="G11" s="60" t="n"/>
+    </row>
+    <row r="12" ht="13.75" customHeight="1">
+      <c r="A12" s="47" t="inlineStr">
+        <is>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="B12" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="50">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="50">
-        <v>600</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="54">
-        <v>400</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="50">
-        <v>80</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="50">
-        <v>50</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6">
-        <v>270</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="63">
+      <c r="C12" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="50">
-        <v>20</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6">
-        <v>250</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="67">
-        <v>55</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-    </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="58">
-        <v>195</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="D12" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="13.75" customHeight="1">
+      <c r="A13" s="47" t="inlineStr">
+        <is>
+          <t>Interest Expense</t>
+        </is>
+      </c>
+      <c r="B13" s="48" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="C13" s="56" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="D13" s="54" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="E13" s="55" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="F13" s="55" t="n">
+        <v>19.9998</v>
+      </c>
+      <c r="G13" s="55" t="n">
+        <v>19.9998</v>
+      </c>
+    </row>
+    <row r="14" ht="13.75" customHeight="1">
+      <c r="A14" s="49" t="inlineStr">
+        <is>
+          <t>Proft before Taxes</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>250.0002</v>
+      </c>
+      <c r="C14" s="65" t="n">
+        <v>259.5522000000001</v>
+      </c>
+      <c r="D14" s="55" t="n">
+        <v>269.4363600000001</v>
+      </c>
+      <c r="E14" s="55" t="n">
+        <v>279.6639696</v>
+      </c>
+      <c r="F14" s="55" t="n">
+        <v>290.2466901120001</v>
+      </c>
+      <c r="G14" s="55" t="n">
+        <v>301.1965662336</v>
+      </c>
+    </row>
+    <row r="15" ht="13.75" customHeight="1">
+      <c r="A15" s="51" t="inlineStr">
+        <is>
+          <t>% margin</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="66" t="n"/>
+      <c r="D15" s="55" t="n"/>
+      <c r="E15" s="55" t="n"/>
+      <c r="F15" s="55" t="n"/>
+      <c r="G15" s="55" t="n"/>
+    </row>
+    <row r="16" ht="13.75" customHeight="1">
+      <c r="A16" s="47" t="inlineStr">
+        <is>
+          <t>Tax Expenses</t>
+        </is>
+      </c>
+      <c r="B16" s="57" t="n">
+        <v>55.000044</v>
+      </c>
+      <c r="C16" s="58" t="n">
+        <v>57.10148400000002</v>
+      </c>
+      <c r="D16" s="59" t="n">
+        <v>59.27599920000002</v>
+      </c>
+      <c r="E16" s="60" t="n">
+        <v>61.52607331199999</v>
+      </c>
+      <c r="F16" s="60" t="n">
+        <v>63.85427182464002</v>
+      </c>
+      <c r="G16" s="60" t="n">
+        <v>66.26324457139201</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="49" t="inlineStr">
+        <is>
+          <t>Net Income</t>
+        </is>
+      </c>
+      <c r="B17" s="52" t="n">
+        <v>195.000156</v>
+      </c>
+      <c r="C17" s="61" t="n">
+        <v>202.4507160000001</v>
+      </c>
+      <c r="D17" s="62" t="n">
+        <v>210.1603608000001</v>
+      </c>
+      <c r="E17" s="62" t="n">
+        <v>218.137896288</v>
+      </c>
+      <c r="F17" s="62" t="n">
+        <v>226.39241828736</v>
+      </c>
+      <c r="G17" s="62" t="n">
+        <v>234.933321662208</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="C18" s="68" t="n"/>
+      <c r="D18" s="68" t="n"/>
+      <c r="E18" s="68" t="n"/>
+      <c r="F18" s="68" t="n"/>
+      <c r="G18" s="68" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/dummydata.xlsx
+++ b/dummydata.xlsx
@@ -1,67 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbaime/Desktop/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C36AE-B90C-FA47-9B30-C27A5F8826D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7160" yWindow="760" windowWidth="15960" windowHeight="17840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="17040" yWindow="760" windowWidth="15960" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Base Rates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Base Rates" sheetId="1" r:id="rId1"/>
+    <sheet name="Assumptions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 4 </t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>P&amp;L Statement</t>
+  </si>
+  <si>
+    <t>Revenue (Yoy.)</t>
+  </si>
+  <si>
+    <t>COGS (increasing marging)</t>
+  </si>
+  <si>
+    <t>SG&amp;A (% of Rev.)</t>
+  </si>
+  <si>
+    <t>D&amp;A (% of Rev.)</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Balance Sheet Statement</t>
+  </si>
+  <si>
+    <t>Inventory Days</t>
+  </si>
+  <si>
+    <t>Debtor Days</t>
+  </si>
+  <si>
+    <t>Creditor Days</t>
+  </si>
+  <si>
+    <t>CapEx (% of Rev.)</t>
+  </si>
+  <si>
+    <t>Financial Assumptions</t>
+  </si>
+  <si>
+    <t>Cash Interest</t>
+  </si>
+  <si>
+    <t>Long-Term Debt Interest</t>
+  </si>
+  <si>
+    <t>Revolver Interest</t>
+  </si>
+  <si>
+    <t>Debt redemption (mandatory)</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>% margin</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Proft before Taxes</t>
+  </si>
+  <si>
+    <t>Tax Expenses</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\);&quot;-&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="11"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <i val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -484,213 +613,214 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -760,6 +890,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1807,443 +1945,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="10.83203125" customWidth="1" min="1" max="9"/>
+    <col min="1" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Assumptions</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Year 1</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Year 4 </t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="13.75" customHeight="1">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>P&amp;L Statement</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="13.75" customHeight="1">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>Revenue (Yoy.)</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="14" t="n">
+    <row r="1" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14">
         <v>0.04</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="14">
         <v>0.04</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="14">
         <v>0.04</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="14">
         <v>0.04</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" ht="13.75" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>COGS (increasing marging)</t>
-        </is>
-      </c>
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="17" t="n"/>
-      <c r="D4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="E4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="F4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="G4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H4" s="18" t="n">
-        <v>0.0012</v>
-      </c>
-    </row>
-    <row r="5" ht="13.75" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>SG&amp;A (% of Rev.)</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="20" t="n">
+    <row r="4" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20">
         <v>0.08</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="14">
         <v>0.08</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>0.08</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="14">
         <v>0.08</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="14">
         <v>0.08</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" ht="13.75" customHeight="1">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>D&amp;A (% of Rev.)</t>
-        </is>
-      </c>
-      <c r="B6" s="19" t="n"/>
-      <c r="C6" s="20" t="n">
+    <row r="6" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20">
         <v>0.05</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="14">
         <v>0.05</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="14">
         <v>0.05</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="14">
         <v>0.05</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="14">
         <v>0.05</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="13.75" customHeight="1">
-      <c r="A7" s="15" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n"/>
-      <c r="C7" s="20" t="n">
+    <row r="7" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20">
         <v>0.2</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="14">
         <v>0.22</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="14">
         <v>0.22</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="14">
         <v>0.22</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="14">
         <v>0.22</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="14">
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" ht="13.75" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="21" t="n"/>
-      <c r="D8" s="22" t="n"/>
-      <c r="E8" s="22" t="n"/>
-      <c r="F8" s="22" t="n"/>
-      <c r="G8" s="22" t="n"/>
-      <c r="H8" s="23" t="n"/>
-    </row>
-    <row r="9" ht="13.75" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>Balance Sheet Statement</t>
-        </is>
-      </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="13.75" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Inventory Days</t>
-        </is>
-      </c>
-      <c r="B10" s="26" t="n"/>
-      <c r="C10" s="27" t="n">
+    <row r="8" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27">
         <v>48</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="28">
         <v>41</v>
       </c>
-      <c r="E10" s="28" t="n">
+      <c r="E10" s="28">
         <v>41</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="28">
         <v>41</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="28">
         <v>41</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="28">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="13.75" customHeight="1">
-      <c r="A11" s="15" t="inlineStr">
-        <is>
-          <t>Debtor Days</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="27" t="n">
+    <row r="11" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="27">
         <v>55</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="28">
         <v>50</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="28">
         <v>50</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="28">
         <v>50</v>
       </c>
-      <c r="G11" s="28" t="n">
+      <c r="G11" s="28">
         <v>50</v>
       </c>
-      <c r="H11" s="28" t="n">
+      <c r="H11" s="28">
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="13.75" customHeight="1">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t>Creditor Days</t>
-        </is>
-      </c>
-      <c r="B12" s="19" t="n"/>
-      <c r="C12" s="27" t="n">
+    <row r="12" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="27">
         <v>48</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="28">
         <v>45</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="28">
         <v>45</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="28">
         <v>45</v>
       </c>
-      <c r="G12" s="28" t="n">
+      <c r="G12" s="28">
         <v>45</v>
       </c>
-      <c r="H12" s="28" t="n">
+      <c r="H12" s="28">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="13.75" customHeight="1">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>CapEx (% of Rev.)</t>
-        </is>
-      </c>
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="29" t="n"/>
-      <c r="D13" s="14" t="n">
-        <v>0.045</v>
+    <row r="13" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="14">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E13" s="14">
         <f>D13+0.1%</f>
-        <v/>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F13" s="14">
         <f>E13+0.1%</f>
-        <v/>
+        <v>4.7E-2</v>
       </c>
       <c r="G13" s="14">
         <f>F13+0.1%</f>
-        <v/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H13" s="14">
         <f>G13+0.1%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="13.75" customHeight="1">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="30" t="n"/>
-      <c r="D14" s="22" t="n"/>
-      <c r="E14" s="22" t="n"/>
-      <c r="F14" s="22" t="n"/>
-      <c r="G14" s="22" t="n"/>
-      <c r="H14" s="23" t="n"/>
-    </row>
-    <row r="15" ht="13.75" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>Financial Assumptions</t>
-        </is>
-      </c>
-      <c r="B15" s="24" t="n"/>
-      <c r="C15" s="24" t="n"/>
-      <c r="D15" s="31" t="n"/>
-      <c r="E15" s="31" t="n"/>
-      <c r="F15" s="31" t="n"/>
-      <c r="G15" s="31" t="n"/>
-      <c r="H15" s="32" t="n"/>
-    </row>
-    <row r="16" ht="13.75" customHeight="1">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>Cash Interest</t>
-        </is>
-      </c>
-      <c r="B16" s="33" t="n"/>
-      <c r="C16" s="34" t="n"/>
-      <c r="D16" s="35" t="n">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35">
         <v>0.03</v>
       </c>
-      <c r="E16" s="35" t="n">
+      <c r="E16" s="35">
         <v>0.03</v>
       </c>
-      <c r="F16" s="35" t="n">
+      <c r="F16" s="35">
         <v>0.03</v>
       </c>
-      <c r="G16" s="35" t="n">
+      <c r="G16" s="35">
         <v>0.03</v>
       </c>
-      <c r="H16" s="35" t="n">
+      <c r="H16" s="35">
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" ht="13.75" customHeight="1">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>Long-Term Debt Interest</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="n"/>
-      <c r="C17" s="37" t="n"/>
-      <c r="D17" s="35" t="n">
+    <row r="17" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="35">
         <v>0.06</v>
       </c>
-      <c r="E17" s="35" t="n">
+      <c r="E17" s="35">
         <v>0.06</v>
       </c>
-      <c r="F17" s="35" t="n">
+      <c r="F17" s="35">
         <v>0.06</v>
       </c>
-      <c r="G17" s="35" t="n">
+      <c r="G17" s="35">
         <v>0.06</v>
       </c>
-      <c r="H17" s="35" t="n">
+      <c r="H17" s="35">
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" ht="13.75" customHeight="1">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
-          <t>Revolver Interest</t>
-        </is>
-      </c>
-      <c r="B18" s="36" t="n"/>
-      <c r="C18" s="37" t="n"/>
-      <c r="D18" s="35" t="n">
+    <row r="18" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="35">
         <v>0.09</v>
       </c>
-      <c r="E18" s="35" t="n">
+      <c r="E18" s="35">
         <v>0.09</v>
       </c>
-      <c r="F18" s="35" t="n">
+      <c r="F18" s="35">
         <v>0.09</v>
       </c>
-      <c r="G18" s="35" t="n">
+      <c r="G18" s="35">
         <v>0.09</v>
       </c>
-      <c r="H18" s="35" t="n">
+      <c r="H18" s="35">
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" ht="13.75" customHeight="1">
-      <c r="A19" s="38" t="inlineStr">
-        <is>
-          <t>Debt redemption (mandatory)</t>
-        </is>
-      </c>
-      <c r="B19" s="39" t="n"/>
-      <c r="C19" s="40" t="n"/>
-      <c r="D19" s="28" t="n">
+    <row r="19" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="28">
         <v>95</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="28">
         <v>95</v>
       </c>
-      <c r="F19" s="28" t="n">
+      <c r="F19" s="28">
         <v>95</v>
       </c>
-      <c r="G19" s="28" t="n">
+      <c r="G19" s="28">
         <v>95</v>
       </c>
-      <c r="H19" s="28" t="n">
+      <c r="H19" s="28">
         <v>95</v>
       </c>
     </row>
@@ -2251,409 +2341,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="10.83203125" customWidth="1" min="1" max="8"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" customHeight="1">
-      <c r="A1" s="41" t="n"/>
-      <c r="B1" s="43" t="inlineStr">
-        <is>
-          <t>Assumptions</t>
-        </is>
-      </c>
-      <c r="C1" s="43" t="inlineStr">
-        <is>
-          <t>Year 1</t>
-        </is>
-      </c>
-      <c r="D1" s="43" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="E1" s="43" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="F1" s="43" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="G1" s="43" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="13.75" customHeight="1">
-      <c r="A2" s="44" t="inlineStr">
-        <is>
-          <t>P&amp;L Statement</t>
-        </is>
-      </c>
-      <c r="B2" s="45" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="46" t="n"/>
-    </row>
-    <row r="3" ht="13.75" customHeight="1">
-      <c r="A3" s="41" t="n"/>
-      <c r="B3" s="42" t="n"/>
-      <c r="C3" s="63" t="n"/>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="64" t="n"/>
-      <c r="F3" s="64" t="n"/>
-      <c r="G3" s="64" t="n"/>
-    </row>
-    <row r="4" ht="13.75" customHeight="1">
-      <c r="A4" s="47" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B4" s="48" t="n">
+    <row r="1" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41"/>
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="48">
         <v>1000</v>
       </c>
-      <c r="C4" s="56" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D4" s="54" t="n">
-        <v>1081.6</v>
-      </c>
-      <c r="E4" s="55" t="n">
-        <v>1124.864</v>
-      </c>
-      <c r="F4" s="55" t="n">
-        <v>1169.85856</v>
-      </c>
-      <c r="G4" s="55" t="n">
-        <v>1216.6529024</v>
-      </c>
-    </row>
-    <row r="5" ht="13.75" customHeight="1">
-      <c r="A5" s="47" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B5" s="48" t="n">
+      <c r="C4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="48">
         <v>600</v>
       </c>
-      <c r="C5" s="56" t="n">
-        <v>625.2479999999999</v>
-      </c>
-      <c r="D5" s="54" t="n">
-        <v>651.55584</v>
-      </c>
-      <c r="E5" s="55" t="n">
-        <v>678.9679104000001</v>
-      </c>
-      <c r="F5" s="55" t="n">
-        <v>707.530457088</v>
-      </c>
-      <c r="G5" s="55" t="n">
-        <v>737.2916588544001</v>
-      </c>
-    </row>
-    <row r="6" ht="13.75" customHeight="1">
-      <c r="A6" s="49" t="inlineStr">
-        <is>
-          <t>Gross Profit</t>
-        </is>
-      </c>
-      <c r="B6" s="50" t="n">
+      <c r="C5" s="56"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="50">
         <v>400</v>
       </c>
-      <c r="C6" s="65" t="n">
-        <v>414.7520000000001</v>
-      </c>
-      <c r="D6" s="60" t="n">
-        <v>430.0441600000001</v>
-      </c>
-      <c r="E6" s="60" t="n">
-        <v>445.8960896</v>
-      </c>
-      <c r="F6" s="60" t="n">
-        <v>462.3281029120001</v>
-      </c>
-      <c r="G6" s="60" t="n">
-        <v>479.3612435456</v>
-      </c>
-    </row>
-    <row r="7" ht="13.75" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
-        <is>
-          <t>% margin</t>
-        </is>
-      </c>
-      <c r="B7" s="52" t="n"/>
-      <c r="C7" s="66" t="n"/>
-      <c r="D7" s="62" t="n"/>
-      <c r="E7" s="62" t="n"/>
-      <c r="F7" s="62" t="n"/>
-      <c r="G7" s="62" t="n"/>
-    </row>
-    <row r="8" ht="13.75" customHeight="1">
-      <c r="A8" s="47" t="inlineStr">
-        <is>
-          <t>SG&amp;A</t>
-        </is>
-      </c>
-      <c r="B8" s="48" t="n">
+      <c r="C6" s="65"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="48">
         <v>80</v>
       </c>
-      <c r="C8" s="56" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="D8" s="54" t="n">
-        <v>86.52800000000001</v>
-      </c>
-      <c r="E8" s="55" t="n">
-        <v>89.98912</v>
-      </c>
-      <c r="F8" s="55" t="n">
-        <v>93.58868480000001</v>
-      </c>
-      <c r="G8" s="55" t="n">
-        <v>97.33223219200001</v>
-      </c>
-    </row>
-    <row r="9" ht="13.75" customHeight="1">
-      <c r="A9" s="47" t="inlineStr">
-        <is>
-          <t>D&amp;A</t>
-        </is>
-      </c>
-      <c r="B9" s="48" t="n">
+      <c r="C8" s="56"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="48">
         <v>50</v>
       </c>
-      <c r="C9" s="56" t="n">
-        <v>52</v>
-      </c>
-      <c r="D9" s="54" t="n">
-        <v>54.08000000000001</v>
-      </c>
-      <c r="E9" s="55" t="n">
-        <v>56.2432</v>
-      </c>
-      <c r="F9" s="55" t="n">
-        <v>58.49292800000001</v>
-      </c>
-      <c r="G9" s="55" t="n">
-        <v>60.83264512000001</v>
-      </c>
-    </row>
-    <row r="10" ht="13.75" customHeight="1">
-      <c r="A10" s="49" t="inlineStr">
-        <is>
-          <t>EBIT</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n">
+      <c r="C9" s="56"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6">
         <v>270</v>
       </c>
-      <c r="C10" s="65" t="n"/>
-      <c r="D10" s="55" t="n"/>
-      <c r="E10" s="55" t="n"/>
-      <c r="F10" s="55" t="n"/>
-      <c r="G10" s="55" t="n"/>
-    </row>
-    <row r="11" ht="13.75" customHeight="1">
-      <c r="A11" s="51" t="inlineStr">
-        <is>
-          <t>% margin</t>
-        </is>
-      </c>
-      <c r="B11" s="50" t="n"/>
-      <c r="C11" s="66" t="n"/>
-      <c r="D11" s="60" t="n"/>
-      <c r="E11" s="60" t="n"/>
-      <c r="F11" s="60" t="n"/>
-      <c r="G11" s="60" t="n"/>
-    </row>
-    <row r="12" ht="13.75" customHeight="1">
-      <c r="A12" s="47" t="inlineStr">
-        <is>
-          <t>Interest Income</t>
-        </is>
-      </c>
-      <c r="B12" s="53" t="n">
+      <c r="C10" s="65"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="53">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="13.75" customHeight="1">
-      <c r="A13" s="47" t="inlineStr">
-        <is>
-          <t>Interest Expense</t>
-        </is>
-      </c>
-      <c r="B13" s="48" t="n">
+      <c r="C12" s="56"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="48">
         <v>19.9998</v>
       </c>
-      <c r="C13" s="56" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="D13" s="54" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="E13" s="55" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="F13" s="55" t="n">
-        <v>19.9998</v>
-      </c>
-      <c r="G13" s="55" t="n">
-        <v>19.9998</v>
-      </c>
-    </row>
-    <row r="14" ht="13.75" customHeight="1">
-      <c r="A14" s="49" t="inlineStr">
-        <is>
-          <t>Proft before Taxes</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>250.0002</v>
-      </c>
-      <c r="C14" s="65" t="n">
-        <v>259.5522000000001</v>
-      </c>
-      <c r="D14" s="55" t="n">
-        <v>269.4363600000001</v>
-      </c>
-      <c r="E14" s="55" t="n">
-        <v>279.6639696</v>
-      </c>
-      <c r="F14" s="55" t="n">
-        <v>290.2466901120001</v>
-      </c>
-      <c r="G14" s="55" t="n">
-        <v>301.1965662336</v>
-      </c>
-    </row>
-    <row r="15" ht="13.75" customHeight="1">
-      <c r="A15" s="51" t="inlineStr">
-        <is>
-          <t>% margin</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="66" t="n"/>
-      <c r="D15" s="55" t="n"/>
-      <c r="E15" s="55" t="n"/>
-      <c r="F15" s="55" t="n"/>
-      <c r="G15" s="55" t="n"/>
-    </row>
-    <row r="16" ht="13.75" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Tax Expenses</t>
-        </is>
-      </c>
-      <c r="B16" s="57" t="n">
-        <v>55.000044</v>
-      </c>
-      <c r="C16" s="58" t="n">
-        <v>57.10148400000002</v>
-      </c>
-      <c r="D16" s="59" t="n">
-        <v>59.27599920000002</v>
-      </c>
-      <c r="E16" s="60" t="n">
-        <v>61.52607331199999</v>
-      </c>
-      <c r="F16" s="60" t="n">
-        <v>63.85427182464002</v>
-      </c>
-      <c r="G16" s="60" t="n">
-        <v>66.26324457139201</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="49" t="inlineStr">
-        <is>
-          <t>Net Income</t>
-        </is>
-      </c>
-      <c r="B17" s="52" t="n">
+      <c r="C13" s="56"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6">
+        <v>250.00020000000001</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="57">
+        <v>55.000044000000003</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="52">
         <v>195.000156</v>
       </c>
-      <c r="C17" s="61" t="n">
-        <v>202.4507160000001</v>
-      </c>
-      <c r="D17" s="62" t="n">
-        <v>210.1603608000001</v>
-      </c>
-      <c r="E17" s="62" t="n">
-        <v>218.137896288</v>
-      </c>
-      <c r="F17" s="62" t="n">
-        <v>226.39241828736</v>
-      </c>
-      <c r="G17" s="62" t="n">
-        <v>234.933321662208</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="C18" s="68" t="n"/>
-      <c r="D18" s="68" t="n"/>
-      <c r="E18" s="68" t="n"/>
-      <c r="F18" s="68" t="n"/>
-      <c r="G18" s="68" t="n"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>